--- a/data/trans_bre/P1801-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1801-Clase-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 16,21</t>
+          <t>0,78; 15,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 14,27</t>
+          <t>1,87; 14,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 35,63</t>
+          <t>1,58; 33,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 28,41</t>
+          <t>3,25; 28,24</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 15,94</t>
+          <t>0,99; 15,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 5,91</t>
+          <t>-6,99; 5,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 34,43</t>
+          <t>1,85; 33,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 11,07</t>
+          <t>-11,45; 11,27</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 19,26</t>
+          <t>1,29; 18,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,13; 6,0</t>
+          <t>-38,18; 7,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 38,82</t>
+          <t>2,34; 37,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,27; 11,25</t>
+          <t>-44,15; 13,5</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 11,45</t>
+          <t>1,89; 11,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 34,66</t>
+          <t>6,65; 32,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 25,05</t>
+          <t>3,88; 24,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,93; 72,77</t>
+          <t>12,94; 66,4</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,47; 15,06</t>
+          <t>4,38; 15,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 12,28</t>
+          <t>-10,16; 11,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,49; 35,33</t>
+          <t>9,01; 36,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 26,82</t>
+          <t>-20,63; 25,25</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,67; 40,56</t>
+          <t>28,92; 40,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,01; 34,69</t>
+          <t>17,21; 35,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>99,37; 213,81</t>
+          <t>98,86; 214,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>50,51; 236,75</t>
+          <t>57,83; 259,35</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 13,29</t>
+          <t>8,22; 13,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 10,96</t>
+          <t>-6,87; 11,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,94; 29,56</t>
+          <t>17,38; 29,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 21,41</t>
+          <t>-12,17; 21,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1801-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1801-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
